--- a/ref/preliminary_calibration_info/ippu_variable_to_calibration_category.xlsx
+++ b/ref/preliminary_calibration_info/ippu_variable_to_calibration_category.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/preliminary_calibration_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD2B08F-F597-ED4B-9C61-91C74D5758EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3690D1A-34C9-7C41-8398-80A0A7FF60A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="460" windowWidth="27760" windowHeight="20360" xr2:uid="{76B41CF9-3D92-E047-A3F0-CDBC59ECE43C}"/>
+    <workbookView xWindow="1540" yWindow="460" windowWidth="32880" windowHeight="20620" xr2:uid="{76B41CF9-3D92-E047-A3F0-CDBC59ECE43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>emission_co2e_ch4_ippu_chemicals</t>
   </si>
@@ -43,63 +43,12 @@
     <t>emission_co2e_ch4_ippu_metals</t>
   </si>
   <si>
-    <t>emission_co2e_co2_ippu_cement</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_chemicals</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_glass</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_lime_and_carbonite</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_metals</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_non_energy_products</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_recycled_glass</t>
-  </si>
-  <si>
-    <t>emission_co2e_hfc134a_ippu_chemicals</t>
-  </si>
-  <si>
-    <t>emission_co2e_hfc134a_ippu_electronics</t>
-  </si>
-  <si>
-    <t>emission_co2e_hfc134a_ippu_metals</t>
-  </si>
-  <si>
-    <t>emission_co2e_hfc134a_ippu_ods_products</t>
-  </si>
-  <si>
-    <t>emission_co2e_hfc23_ippu_chemicals</t>
-  </si>
-  <si>
-    <t>emission_co2e_hfc23_ippu_electronics</t>
-  </si>
-  <si>
-    <t>emission_co2e_hfc23_ippu_ods_products</t>
-  </si>
-  <si>
-    <t>emission_co2e_hfc23_ippu_other_product_manufacturing</t>
-  </si>
-  <si>
     <t>emission_co2e_n2o_ippu_chemicals</t>
   </si>
   <si>
     <t>emission_co2e_n2o_ippu_other_product_manufacturing</t>
   </si>
   <si>
-    <t>emission_co2e_nf3_ippu_chemicals</t>
-  </si>
-  <si>
-    <t>emission_co2e_nf3_ippu_electronics</t>
-  </si>
-  <si>
     <t>emission_co2e_sf6_ippu_chemicals</t>
   </si>
   <si>
@@ -130,36 +79,12 @@
     <t>emission_co2e_ch4_ippu_plastic</t>
   </si>
   <si>
-    <t>emission_co2e_ch4_ippu_recycled_paper</t>
-  </si>
-  <si>
-    <t>emission_co2e_ch4_ippu_recycled_plastic</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_paper</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_plastic</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_recycled_paper</t>
-  </si>
-  <si>
-    <t>emission_co2e_co2_ippu_recycled_plastic</t>
-  </si>
-  <si>
     <t>emission_co2e_n2o_ippu_paper</t>
   </si>
   <si>
     <t>emission_co2e_n2o_ippu_plastic</t>
   </si>
   <si>
-    <t>emission_co2e_n2o_ippu_recycled_paper</t>
-  </si>
-  <si>
-    <t>emission_co2e_n2o_ippu_recycled_plastic</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -182,6 +107,72 @@
   </si>
   <si>
     <t>TOTAL EMISSIONS</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_product_use_product_use_lubricants</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_product_use_product_use_other</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_product_use_product_use_paraffin_wax</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_cement</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_chemicals</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_glass</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_lime_and_carbonite</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_metals</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_paper</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_plastic</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_product_use_lubricants</t>
+  </si>
+  <si>
+    <t>emission_co2e_co2_ippu_production_product_use_paraffin_wax</t>
+  </si>
+  <si>
+    <t>emission_co2e_hfcs_ippu_product_use_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>emission_co2e_hfcs_ippu_product_use_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>emission_co2e_hfcs_ippu_production_chemicals</t>
+  </si>
+  <si>
+    <t>emission_co2e_hfcs_ippu_production_electronics</t>
+  </si>
+  <si>
+    <t>emission_co2e_hfcs_ippu_production_metals</t>
+  </si>
+  <si>
+    <t>emission_co2e_other_fcs_ippu_production_electronics</t>
+  </si>
+  <si>
+    <t>emission_co2e_pfcs_ippu_product_use_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>emission_co2e_pfcs_ippu_production_chemicals</t>
+  </si>
+  <si>
+    <t>emission_co2e_pfcs_ippu_production_electronics</t>
+  </si>
+  <si>
+    <t>emission_co2e_pfcs_ippu_production_other_product_manufacturing</t>
   </si>
 </sst>
 </file>
@@ -266,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,6 +280,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -296,7 +290,54 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -307,6 +348,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12DB0B89-8D86-E14A-A62B-3BBBE58DEBBD}" name="Table2" displayName="Table2" ref="B1:I35" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B1:I35" xr:uid="{12DB0B89-8D86-E14A-A62B-3BBBE58DEBBD}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C1794976-D4B1-B740-8DEB-E91D15EF8AF6}" name="2. Industrial Process" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EBC5BB4A-55DB-8349-A8A4-5EAB1FC66B09}" name="2.A Mineral Products" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6D4FAE38-5155-2849-81FE-C6199FCB40A6}" name="2.B Chemical Industry" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{152EDFBD-9D44-064D-8153-2B52E7AABDC3}" name="2.C Metal Production" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8B3F9813-0EFA-304A-A96C-5447581798DD}" name="2.D Other Production (NON ENERGY PRODUCT USE)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{AE87CC76-DC50-7843-91C0-478019416320}" name="2.E Production of Halocarbons and SF6 (ELECTRONICS)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B341DFCF-9BEA-D749-803F-A18A783C23BC}" name="2.F Consumption of Halcarbons and SF6 (ODS SUBSTITUTES)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{3444045E-5B57-654A-8749-BF82B65E3896}" name="2.G Other" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,47 +664,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77E2A0-2BF2-0741-B830-49CA4BF4CD00}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" customWidth="1"/>
+    <col min="2" max="4" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="108" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -661,6 +720,7 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="8"/>
       <c r="E3" s="4">
         <v>1</v>
       </c>
@@ -668,86 +728,80 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="I4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -756,25 +810,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="4">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -782,7 +836,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -791,9 +845,9 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="I16" s="4"/>
@@ -802,58 +856,59 @@
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="4">
+      <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4">
+        <v>37</v>
+      </c>
+      <c r="H19" s="4">
         <v>1</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4">
+        <v>38</v>
+      </c>
+      <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="4">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -862,67 +917,68 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="4">
-        <v>1</v>
-      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="4">
+        <v>41</v>
+      </c>
+      <c r="G27" s="4">
         <v>1</v>
       </c>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="4">
+        <v>44</v>
+      </c>
+      <c r="G30" s="4">
         <v>1</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I31" s="4">
         <v>1</v>
@@ -930,7 +986,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -939,65 +995,54 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="4">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
         <v>1</v>
       </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="4">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F39" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
-    <sortCondition ref="A2:A38"/>
-  </sortState>
   <mergeCells count="3">
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="MOD(ROW($B$2), 2)=1"/>
+        <cfvo type="formula" val="&quot;MOD(ROW($B$2), 2)=0&quot;"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="3" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>